--- a/HelaMedical/File/AlcoReport.xlsx
+++ b/HelaMedical/File/AlcoReport.xlsx
@@ -3951,12 +3951,12 @@
   <dimension ref="A1:AW344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">

--- a/HelaMedical/File/AlcoReport.xlsx
+++ b/HelaMedical/File/AlcoReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9034" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9045" uniqueCount="1204">
   <si>
     <t>Радионов Сергей Леонидович</t>
   </si>
@@ -3961,31 +3961,31 @@
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>414</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>415</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
+      <c r="I1">
+        <v>1</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -3994,19 +3994,16 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>416</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>417</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="S1" t="s">
         <v>15</v>
@@ -4014,50 +4011,44 @@
       <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="Y1">
-        <v>1</v>
-      </c>
-      <c r="Z1">
-        <v>2</v>
-      </c>
       <c r="AA1" t="s">
         <v>17</v>
       </c>
-      <c r="AB1">
-        <v>205</v>
-      </c>
       <c r="AC1" t="s">
         <v>18</v>
       </c>
+      <c r="AE1">
+        <v>2</v>
+      </c>
       <c r="AF1" t="s">
-        <v>19</v>
+        <v>109</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>418</v>
       </c>
       <c r="AI1" t="s">
-        <v>20</v>
+        <v>419</v>
       </c>
       <c r="AL1" t="s">
-        <v>21</v>
+        <v>420</v>
       </c>
       <c r="AM1" t="s">
         <v>22</v>
       </c>
-      <c r="AP1" t="s">
-        <v>23</v>
-      </c>
       <c r="AQ1" t="s">
         <v>24</v>
       </c>
       <c r="AR1" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="AT1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="AU1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AV1">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AW1" t="s">
         <v>27</v>
@@ -4065,16 +4056,16 @@
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>421</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>422</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -4083,10 +4074,10 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>423</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -4095,49 +4086,43 @@
         <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>424</v>
       </c>
       <c r="R2" t="s">
         <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="W2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC2" t="s">
         <v>18</v>
       </c>
-      <c r="AE2">
-        <v>2</v>
-      </c>
       <c r="AF2" t="s">
-        <v>19</v>
+        <v>49</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>425</v>
       </c>
       <c r="AI2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
+        <v>426</v>
       </c>
       <c r="AQ2" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AR2" t="s">
         <v>25</v>
@@ -4146,10 +4131,10 @@
         <v>43</v>
       </c>
       <c r="AU2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AV2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AW2" t="s">
         <v>27</v>
@@ -4157,16 +4142,16 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>427</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -4175,37 +4160,40 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>429</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
+        <v>88</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>430</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>431</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>432</v>
       </c>
       <c r="R3" t="s">
-        <v>38</v>
+        <v>433</v>
       </c>
       <c r="S3" t="s">
         <v>15</v>
       </c>
       <c r="W3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="AA3" t="s">
         <v>18</v>
@@ -4214,19 +4202,19 @@
         <v>18</v>
       </c>
       <c r="AF3" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="s">
-        <v>50</v>
+        <v>434</v>
       </c>
       <c r="AL3" t="s">
-        <v>51</v>
+        <v>287</v>
       </c>
       <c r="AM3" t="s">
         <v>22</v>
       </c>
       <c r="AQ3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AR3" t="s">
         <v>25</v>
@@ -4235,10 +4223,10 @@
         <v>43</v>
       </c>
       <c r="AU3">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AV3">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="AW3" t="s">
         <v>27</v>
@@ -4246,25 +4234,25 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>435</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>436</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>437</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -4273,31 +4261,43 @@
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>272</v>
       </c>
       <c r="K4" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>438</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>439</v>
+      </c>
+      <c r="O4" t="s">
+        <v>440</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>441</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="W4" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
       </c>
       <c r="AA4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>442</v>
       </c>
       <c r="AC4" t="s">
         <v>18</v>
@@ -4306,22 +4306,28 @@
         <v>49</v>
       </c>
       <c r="AI4" t="s">
-        <v>59</v>
+        <v>443</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>444</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>36</v>
       </c>
       <c r="AQ4" t="s">
         <v>24</v>
       </c>
       <c r="AR4" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="AT4" t="s">
-        <v>61</v>
+        <v>445</v>
       </c>
       <c r="AU4">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AV4">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AW4" t="s">
         <v>27</v>
@@ -4329,16 +4335,16 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>446</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>447</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -4347,37 +4353,37 @@
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>448</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
+        <v>88</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
         <v>47</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>265</v>
       </c>
       <c r="M5" t="s">
         <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>449</v>
       </c>
       <c r="R5" t="s">
-        <v>38</v>
+        <v>433</v>
       </c>
       <c r="S5" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="W5" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="AA5" t="s">
         <v>18</v>
@@ -4385,38 +4391,29 @@
       <c r="AC5" t="s">
         <v>18</v>
       </c>
-      <c r="AF5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>67</v>
-      </c>
       <c r="AI5" t="s">
-        <v>68</v>
+        <v>450</v>
       </c>
       <c r="AL5" t="s">
-        <v>69</v>
+        <v>451</v>
       </c>
       <c r="AM5" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="AQ5" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="AR5" t="s">
         <v>25</v>
       </c>
-      <c r="AS5" t="s">
-        <v>71</v>
-      </c>
       <c r="AT5" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="AU5">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="AV5">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="AW5" t="s">
         <v>27</v>
@@ -4424,58 +4421,55 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>452</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>453</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>454</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
+        <v>88</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
         <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="M6" t="s">
         <v>11</v>
       </c>
-      <c r="N6" t="s">
-        <v>78</v>
-      </c>
       <c r="P6" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="R6" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s">
         <v>15</v>
       </c>
       <c r="W6" t="s">
-        <v>16</v>
+        <v>455</v>
       </c>
       <c r="AA6" t="s">
         <v>18</v>
@@ -4487,31 +4481,22 @@
         <v>49</v>
       </c>
       <c r="AI6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>82</v>
+        <v>456</v>
       </c>
       <c r="AQ6" t="s">
         <v>24</v>
       </c>
       <c r="AR6" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="AT6" t="s">
         <v>84</v>
       </c>
       <c r="AU6">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AV6">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AW6" t="s">
         <v>27</v>
@@ -4519,49 +4504,55 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>457</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>458</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>459</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="K7" t="s">
         <v>9</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="M7" t="s">
         <v>11</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>460</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>461</v>
+      </c>
+      <c r="R7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" t="s">
+        <v>36</v>
       </c>
       <c r="W7" t="s">
         <v>16</v>
@@ -4569,41 +4560,44 @@
       <c r="Y7">
         <v>1</v>
       </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
       <c r="AA7" t="s">
         <v>17</v>
       </c>
-      <c r="AB7">
-        <v>205</v>
+      <c r="AB7" t="s">
+        <v>462</v>
       </c>
       <c r="AC7" t="s">
         <v>18</v>
       </c>
-      <c r="AF7" t="s">
-        <v>19</v>
+      <c r="AG7" t="s">
+        <v>67</v>
       </c>
       <c r="AI7" t="s">
-        <v>93</v>
+        <v>463</v>
       </c>
       <c r="AL7" t="s">
-        <v>94</v>
+        <v>464</v>
       </c>
       <c r="AM7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AQ7" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AR7" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="AT7" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="AU7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AV7">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="AW7" t="s">
         <v>27</v>
@@ -4611,46 +4605,46 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>466</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>467</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>468</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>7</v>
+        <v>88</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>469</v>
       </c>
       <c r="M8" t="s">
         <v>11</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>470</v>
       </c>
       <c r="R8" t="s">
         <v>14</v>
@@ -4659,7 +4653,7 @@
         <v>15</v>
       </c>
       <c r="W8" t="s">
-        <v>16</v>
+        <v>455</v>
       </c>
       <c r="AA8" t="s">
         <v>18</v>
@@ -4668,25 +4662,31 @@
         <v>18</v>
       </c>
       <c r="AF8" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="s">
-        <v>102</v>
+        <v>471</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>472</v>
       </c>
       <c r="AQ8" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AR8" t="s">
-        <v>103</v>
+        <v>25</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>141</v>
       </c>
       <c r="AT8" t="s">
-        <v>43</v>
+        <v>473</v>
       </c>
       <c r="AU8">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AV8">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AW8" t="s">
         <v>27</v>
@@ -4694,16 +4694,16 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>474</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>475</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
@@ -4712,70 +4712,76 @@
         <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>476</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
         <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>477</v>
       </c>
       <c r="M9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>478</v>
       </c>
       <c r="R9" t="s">
         <v>38</v>
       </c>
       <c r="S9" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="W9" t="s">
         <v>16</v>
       </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
       <c r="AA9" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>479</v>
       </c>
       <c r="AC9" t="s">
         <v>18</v>
       </c>
       <c r="AF9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="AI9" t="s">
-        <v>111</v>
+        <v>480</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>481</v>
       </c>
       <c r="AQ9" t="s">
         <v>24</v>
       </c>
       <c r="AR9" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="AT9" t="s">
-        <v>43</v>
+        <v>482</v>
       </c>
       <c r="AU9">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="AV9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="AW9" t="s">
         <v>27</v>
@@ -4783,52 +4789,52 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>483</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>484</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>485</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>486</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
         <v>11</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>487</v>
       </c>
       <c r="R10" t="s">
         <v>14</v>
       </c>
       <c r="S10" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="W10" t="s">
         <v>16</v>
@@ -4843,28 +4849,28 @@
         <v>49</v>
       </c>
       <c r="AI10" t="s">
-        <v>116</v>
+        <v>488</v>
       </c>
       <c r="AL10" t="s">
-        <v>117</v>
+        <v>489</v>
       </c>
       <c r="AM10" t="s">
         <v>22</v>
       </c>
       <c r="AQ10" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="AR10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AT10" t="s">
-        <v>43</v>
+        <v>490</v>
       </c>
       <c r="AU10">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="AV10">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AW10" t="s">
         <v>27</v>
@@ -4872,16 +4878,16 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>491</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>492</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -4890,67 +4896,73 @@
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>493</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
       </c>
       <c r="J11" t="s">
         <v>33</v>
       </c>
       <c r="K11" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="M11" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>494</v>
       </c>
       <c r="R11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S11" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="T11" t="s">
+        <v>232</v>
+      </c>
+      <c r="U11" t="s">
+        <v>299</v>
+      </c>
+      <c r="V11" t="s">
+        <v>495</v>
       </c>
       <c r="W11" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="AA11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC11" t="s">
         <v>18</v>
       </c>
       <c r="AF11" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AI11" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>22</v>
+        <v>496</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>497</v>
       </c>
       <c r="AQ11" t="s">
         <v>24</v>
       </c>
       <c r="AR11" t="s">
-        <v>103</v>
+        <v>25</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>43</v>
       </c>
       <c r="AU11">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="AV11">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AW11" t="s">
         <v>27</v>
@@ -4958,31 +4970,31 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>498</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>499</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>500</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
       </c>
-      <c r="I12">
-        <v>2</v>
+      <c r="I12" t="s">
+        <v>7</v>
       </c>
       <c r="J12" t="s">
         <v>8</v>
@@ -4991,13 +5003,13 @@
         <v>47</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>265</v>
       </c>
       <c r="M12" t="s">
         <v>36</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>501</v>
       </c>
       <c r="R12" t="s">
         <v>14</v>
@@ -5015,31 +5027,40 @@
         <v>18</v>
       </c>
       <c r="AF12" t="s">
-        <v>66</v>
+        <v>502</v>
       </c>
       <c r="AG12" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="AI12" t="s">
-        <v>131</v>
+        <v>503</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>504</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>505</v>
       </c>
       <c r="AQ12" t="s">
         <v>95</v>
       </c>
       <c r="AR12" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="AS12" t="s">
-        <v>132</v>
+        <v>506</v>
       </c>
       <c r="AT12" t="s">
-        <v>133</v>
+        <v>507</v>
       </c>
       <c r="AU12">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="AV12">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AW12" t="s">
         <v>27</v>
@@ -5047,55 +5068,55 @@
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>508</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>509</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>136</v>
+        <v>510</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
+        <v>88</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
         <v>9</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>511</v>
       </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>512</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>513</v>
       </c>
       <c r="R13" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="W13" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="AA13" t="s">
         <v>18</v>
@@ -5104,28 +5125,34 @@
         <v>18</v>
       </c>
       <c r="AF13" t="s">
-        <v>49</v>
+        <v>368</v>
       </c>
       <c r="AI13" t="s">
-        <v>140</v>
+        <v>514</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>515</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>516</v>
       </c>
       <c r="AQ13" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AR13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="AT13" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="AU13">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AV13">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AW13" t="s">
         <v>27</v>
@@ -5133,16 +5160,16 @@
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>517</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>518</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -5151,28 +5178,28 @@
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>144</v>
+        <v>519</v>
       </c>
       <c r="H14" t="s">
         <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>520</v>
       </c>
       <c r="M14" t="s">
         <v>11</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>521</v>
       </c>
       <c r="R14" t="s">
         <v>14</v>
@@ -5181,34 +5208,40 @@
         <v>15</v>
       </c>
       <c r="W14" t="s">
-        <v>16</v>
+        <v>522</v>
       </c>
       <c r="AA14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC14" t="s">
         <v>18</v>
       </c>
       <c r="AF14" t="s">
-        <v>49</v>
+        <v>66</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>67</v>
       </c>
       <c r="AI14" t="s">
-        <v>148</v>
+        <v>523</v>
       </c>
       <c r="AQ14" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AR14" t="s">
-        <v>103</v>
+        <v>25</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>314</v>
       </c>
       <c r="AT14" t="s">
-        <v>43</v>
+        <v>507</v>
       </c>
       <c r="AU14">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AV14">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AW14" t="s">
         <v>27</v>
@@ -5216,28 +5249,28 @@
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>524</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>525</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>526</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
@@ -5255,10 +5288,10 @@
         <v>36</v>
       </c>
       <c r="P15" t="s">
-        <v>152</v>
+        <v>527</v>
       </c>
       <c r="R15" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s">
         <v>15</v>
@@ -5276,16 +5309,16 @@
         <v>49</v>
       </c>
       <c r="AI15" t="s">
-        <v>153</v>
+        <v>528</v>
       </c>
       <c r="AL15" t="s">
-        <v>154</v>
+        <v>529</v>
       </c>
       <c r="AM15" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AQ15" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AR15" t="s">
         <v>83</v>
@@ -5294,10 +5327,10 @@
         <v>43</v>
       </c>
       <c r="AU15">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="AV15">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AW15" t="s">
         <v>27</v>
@@ -5305,16 +5338,16 @@
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>530</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>531</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
@@ -5323,7 +5356,7 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>157</v>
+        <v>532</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
@@ -5344,10 +5377,10 @@
         <v>11</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>533</v>
       </c>
       <c r="R16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="S16" t="s">
         <v>15</v>
@@ -5365,28 +5398,28 @@
         <v>49</v>
       </c>
       <c r="AI16" t="s">
-        <v>160</v>
+        <v>534</v>
       </c>
       <c r="AL16" t="s">
-        <v>161</v>
+        <v>535</v>
       </c>
       <c r="AM16" t="s">
         <v>22</v>
       </c>
       <c r="AQ16" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AR16" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="AT16" t="s">
         <v>43</v>
       </c>
       <c r="AU16">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AV16">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AW16" t="s">
         <v>27</v>
@@ -5394,34 +5427,34 @@
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>536</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>537</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>538</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>18</v>
+        <v>88</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s">
         <v>9</v>
@@ -5432,47 +5465,56 @@
       <c r="M17" t="s">
         <v>36</v>
       </c>
+      <c r="N17" t="s">
+        <v>539</v>
+      </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>540</v>
       </c>
       <c r="R17" t="s">
         <v>38</v>
       </c>
       <c r="S17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="W17" t="s">
-        <v>39</v>
+        <v>541</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
       </c>
       <c r="AA17" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="AB17">
+        <v>205</v>
       </c>
       <c r="AC17" t="s">
         <v>18</v>
       </c>
       <c r="AF17" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>167</v>
+        <v>542</v>
       </c>
       <c r="AQ17" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AR17" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="AU17">
+        <v>23</v>
+      </c>
+      <c r="AV17">
         <v>41</v>
-      </c>
-      <c r="AV17">
-        <v>58</v>
       </c>
       <c r="AW17" t="s">
         <v>27</v>
@@ -5480,16 +5522,16 @@
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>413</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>414</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
@@ -5498,7 +5540,7 @@
         <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>415</v>
       </c>
       <c r="H18" t="s">
         <v>6</v>
@@ -5513,16 +5555,16 @@
         <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>416</v>
       </c>
       <c r="M18" t="s">
         <v>11</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>417</v>
       </c>
       <c r="R18" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s">
         <v>15</v>
@@ -5536,26 +5578,38 @@
       <c r="AC18" t="s">
         <v>18</v>
       </c>
+      <c r="AE18">
+        <v>2</v>
+      </c>
       <c r="AF18" t="s">
-        <v>19</v>
+        <v>109</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>418</v>
       </c>
       <c r="AI18" t="s">
-        <v>138</v>
+        <v>419</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>420</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>22</v>
       </c>
       <c r="AQ18" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AR18" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="AT18" t="s">
         <v>43</v>
       </c>
       <c r="AU18">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AV18">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AW18" t="s">
         <v>27</v>
@@ -5563,55 +5617,55 @@
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>421</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>422</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>176</v>
+        <v>423</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="K19" t="s">
         <v>9</v>
       </c>
       <c r="L19" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="M19" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>424</v>
       </c>
       <c r="R19" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s">
         <v>58</v>
       </c>
       <c r="W19" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="AA19" t="s">
         <v>18</v>
@@ -5620,34 +5674,28 @@
         <v>18</v>
       </c>
       <c r="AF19" t="s">
-        <v>179</v>
+        <v>49</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>425</v>
       </c>
       <c r="AI19" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>182</v>
+        <v>426</v>
       </c>
       <c r="AQ19" t="s">
         <v>95</v>
       </c>
       <c r="AR19" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="AT19" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="AU19">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AV19">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="AW19" t="s">
         <v>27</v>
@@ -5655,16 +5703,16 @@
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>427</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>428</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
@@ -5673,37 +5721,40 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>185</v>
+        <v>429</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" t="s">
-        <v>18</v>
+        <v>88</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K20" t="s">
         <v>9</v>
       </c>
       <c r="L20" t="s">
-        <v>35</v>
+        <v>430</v>
       </c>
       <c r="M20" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="N20" t="s">
+        <v>431</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>432</v>
       </c>
       <c r="R20" t="s">
-        <v>14</v>
+        <v>433</v>
       </c>
       <c r="S20" t="s">
         <v>15</v>
       </c>
       <c r="W20" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="AA20" t="s">
         <v>18</v>
@@ -5715,10 +5766,10 @@
         <v>19</v>
       </c>
       <c r="AI20" t="s">
-        <v>187</v>
+        <v>434</v>
       </c>
       <c r="AL20" t="s">
-        <v>188</v>
+        <v>287</v>
       </c>
       <c r="AM20" t="s">
         <v>22</v>
@@ -5727,16 +5778,16 @@
         <v>24</v>
       </c>
       <c r="AR20" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="s">
         <v>43</v>
       </c>
       <c r="AU20">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AV20">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AW20" t="s">
         <v>27</v>
@@ -5744,16 +5795,16 @@
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>435</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
+        <v>436</v>
       </c>
       <c r="E21" t="s">
         <v>3</v>
@@ -5762,31 +5813,34 @@
         <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>191</v>
+        <v>437</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="L21" t="s">
-        <v>35</v>
+        <v>438</v>
       </c>
       <c r="M21" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="N21" t="s">
-        <v>192</v>
+        <v>439</v>
+      </c>
+      <c r="O21" t="s">
+        <v>440</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>441</v>
       </c>
       <c r="R21" t="s">
         <v>38</v>
@@ -5795,40 +5849,46 @@
         <v>15</v>
       </c>
       <c r="W21" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="Y21">
+        <v>3</v>
       </c>
       <c r="AA21" t="s">
         <v>17</v>
       </c>
+      <c r="AB21" t="s">
+        <v>442</v>
+      </c>
       <c r="AC21" t="s">
         <v>18</v>
-      </c>
-      <c r="AD21">
-        <v>1</v>
-      </c>
-      <c r="AE21">
-        <v>1</v>
       </c>
       <c r="AF21" t="s">
         <v>49</v>
       </c>
       <c r="AI21" t="s">
-        <v>194</v>
+        <v>443</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>444</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>36</v>
       </c>
       <c r="AQ21" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AR21" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AT21" t="s">
-        <v>43</v>
+        <v>445</v>
       </c>
       <c r="AU21">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AV21">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AW21" t="s">
         <v>27</v>
@@ -5836,16 +5896,16 @@
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>446</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>196</v>
+        <v>447</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
@@ -5854,37 +5914,37 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>197</v>
+        <v>448</v>
       </c>
       <c r="H22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" t="s">
-        <v>18</v>
+        <v>88</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K22" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="L22" t="s">
-        <v>198</v>
+        <v>265</v>
       </c>
       <c r="M22" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>449</v>
       </c>
       <c r="R22" t="s">
-        <v>14</v>
+        <v>433</v>
       </c>
       <c r="S22" t="s">
         <v>15</v>
       </c>
       <c r="W22" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="AA22" t="s">
         <v>18</v>
@@ -5892,14 +5952,11 @@
       <c r="AC22" t="s">
         <v>18</v>
       </c>
-      <c r="AF22" t="s">
-        <v>49</v>
-      </c>
       <c r="AI22" t="s">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="AL22" t="s">
-        <v>201</v>
+        <v>451</v>
       </c>
       <c r="AM22" t="s">
         <v>22</v>
@@ -5908,16 +5965,16 @@
         <v>95</v>
       </c>
       <c r="AR22" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="AT22" t="s">
         <v>43</v>
       </c>
       <c r="AU22">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AV22">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AW22" t="s">
         <v>27</v>
@@ -5925,88 +5982,82 @@
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>452</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
+        <v>453</v>
       </c>
       <c r="E23" t="s">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>204</v>
+        <v>454</v>
       </c>
       <c r="H23" t="s">
         <v>88</v>
       </c>
-      <c r="I23" t="s">
-        <v>7</v>
+      <c r="I23">
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="K23" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="L23" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="M23" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="R23" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s">
         <v>15</v>
       </c>
       <c r="W23" t="s">
-        <v>39</v>
+        <v>455</v>
       </c>
       <c r="AA23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC23" t="s">
         <v>18</v>
       </c>
-      <c r="AD23">
-        <v>1</v>
-      </c>
-      <c r="AE23">
-        <v>1</v>
-      </c>
       <c r="AF23" t="s">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s">
-        <v>207</v>
+        <v>456</v>
       </c>
       <c r="AQ23" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AR23" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="AT23" t="s">
-        <v>209</v>
+        <v>84</v>
       </c>
       <c r="AU23">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="AV23">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AW23" t="s">
         <v>27</v>
@@ -6014,31 +6065,31 @@
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>457</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>211</v>
+        <v>458</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>212</v>
+        <v>459</v>
       </c>
       <c r="H24" t="s">
-        <v>213</v>
-      </c>
-      <c r="I24">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
       </c>
       <c r="J24" t="s">
         <v>8</v>
@@ -6047,55 +6098,67 @@
         <v>9</v>
       </c>
       <c r="L24" t="s">
-        <v>35</v>
+        <v>323</v>
       </c>
       <c r="M24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" t="s">
+        <v>460</v>
+      </c>
+      <c r="P24" t="s">
+        <v>461</v>
+      </c>
+      <c r="R24" t="s">
+        <v>38</v>
+      </c>
+      <c r="S24" t="s">
         <v>36</v>
       </c>
-      <c r="P24" t="s">
-        <v>214</v>
-      </c>
-      <c r="R24" t="s">
-        <v>215</v>
-      </c>
-      <c r="S24" t="s">
-        <v>15</v>
-      </c>
       <c r="W24" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
       </c>
       <c r="AA24" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>462</v>
       </c>
       <c r="AC24" t="s">
         <v>18</v>
       </c>
-      <c r="AF24" t="s">
-        <v>49</v>
+      <c r="AG24" t="s">
+        <v>67</v>
       </c>
       <c r="AI24" t="s">
-        <v>216</v>
+        <v>463</v>
       </c>
       <c r="AL24" t="s">
-        <v>217</v>
+        <v>464</v>
       </c>
       <c r="AM24" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AQ24" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AR24" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="AT24" t="s">
-        <v>209</v>
+        <v>465</v>
       </c>
       <c r="AU24">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AV24">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AW24" t="s">
         <v>27</v>
@@ -6103,46 +6166,46 @@
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>466</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>467</v>
       </c>
       <c r="E25" t="s">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>221</v>
+        <v>468</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="K25" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="L25" t="s">
-        <v>222</v>
+        <v>469</v>
       </c>
       <c r="M25" t="s">
         <v>11</v>
       </c>
       <c r="P25" t="s">
-        <v>223</v>
+        <v>470</v>
       </c>
       <c r="R25" t="s">
         <v>14</v>
@@ -6151,7 +6214,7 @@
         <v>15</v>
       </c>
       <c r="W25" t="s">
-        <v>39</v>
+        <v>455</v>
       </c>
       <c r="AA25" t="s">
         <v>18</v>
@@ -6160,25 +6223,31 @@
         <v>18</v>
       </c>
       <c r="AF25" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="s">
-        <v>224</v>
+        <v>471</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>472</v>
       </c>
       <c r="AQ25" t="s">
         <v>24</v>
       </c>
       <c r="AR25" t="s">
-        <v>83</v>
+        <v>25</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>141</v>
       </c>
       <c r="AT25" t="s">
-        <v>43</v>
+        <v>473</v>
       </c>
       <c r="AU25">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AV25">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AW25" t="s">
         <v>27</v>
@@ -6186,16 +6255,16 @@
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>474</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>226</v>
+        <v>475</v>
       </c>
       <c r="E26" t="s">
         <v>3</v>
@@ -6204,46 +6273,34 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>227</v>
+        <v>476</v>
       </c>
       <c r="H26" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K26" t="s">
         <v>47</v>
       </c>
       <c r="L26" t="s">
-        <v>228</v>
+        <v>477</v>
       </c>
       <c r="M26" t="s">
         <v>11</v>
       </c>
-      <c r="N26" t="s">
-        <v>229</v>
-      </c>
       <c r="P26" t="s">
-        <v>230</v>
+        <v>478</v>
       </c>
       <c r="R26" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s">
-        <v>231</v>
-      </c>
-      <c r="T26" t="s">
-        <v>232</v>
-      </c>
-      <c r="U26" t="s">
-        <v>233</v>
-      </c>
-      <c r="V26" t="s">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="W26" t="s">
         <v>16</v>
@@ -6252,46 +6309,40 @@
         <v>1</v>
       </c>
       <c r="Z26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA26" t="s">
         <v>17</v>
       </c>
+      <c r="AB26" t="s">
+        <v>479</v>
+      </c>
       <c r="AC26" t="s">
         <v>18</v>
       </c>
       <c r="AF26" t="s">
-        <v>235</v>
+        <v>49</v>
       </c>
       <c r="AI26" t="s">
-        <v>236</v>
+        <v>480</v>
       </c>
       <c r="AL26" t="s">
-        <v>237</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>238</v>
+        <v>481</v>
       </c>
       <c r="AQ26" t="s">
         <v>24</v>
       </c>
       <c r="AR26" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="AT26" t="s">
-        <v>240</v>
+        <v>482</v>
       </c>
       <c r="AU26">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AV26">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AW26" t="s">
         <v>27</v>
@@ -6299,73 +6350,70 @@
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>483</v>
       </c>
       <c r="C27" t="s">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>242</v>
+        <v>484</v>
       </c>
       <c r="E27" t="s">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>243</v>
+        <v>485</v>
       </c>
       <c r="H27" t="s">
-        <v>6</v>
+        <v>486</v>
       </c>
       <c r="I27">
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K27" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="L27" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="M27" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="P27" t="s">
-        <v>244</v>
+        <v>487</v>
       </c>
       <c r="R27" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="S27" t="s">
         <v>15</v>
       </c>
       <c r="W27" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="AA27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC27" t="s">
         <v>18</v>
-      </c>
-      <c r="AE27">
-        <v>1</v>
       </c>
       <c r="AF27" t="s">
         <v>49</v>
       </c>
       <c r="AI27" t="s">
-        <v>245</v>
+        <v>488</v>
       </c>
       <c r="AL27" t="s">
-        <v>246</v>
+        <v>489</v>
       </c>
       <c r="AM27" t="s">
         <v>22</v>
@@ -6374,16 +6422,16 @@
         <v>24</v>
       </c>
       <c r="AR27" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="AT27" t="s">
-        <v>43</v>
+        <v>490</v>
       </c>
       <c r="AU27">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AV27">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AW27" t="s">
         <v>27</v>
@@ -6391,52 +6439,58 @@
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s">
-        <v>247</v>
+        <v>491</v>
       </c>
       <c r="C28" t="s">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>248</v>
+        <v>492</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>249</v>
+        <v>493</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="I28" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
         <v>33</v>
       </c>
       <c r="K28" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="L28" t="s">
-        <v>35</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s">
         <v>36</v>
       </c>
       <c r="P28" t="s">
-        <v>250</v>
+        <v>494</v>
       </c>
       <c r="R28" t="s">
-        <v>38</v>
-      </c>
-      <c r="S28" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="T28" t="s">
+        <v>232</v>
+      </c>
+      <c r="U28" t="s">
+        <v>299</v>
+      </c>
+      <c r="V28" t="s">
+        <v>495</v>
       </c>
       <c r="W28" t="s">
         <v>129</v>
@@ -6448,34 +6502,28 @@
         <v>18</v>
       </c>
       <c r="AF28" t="s">
-        <v>251</v>
+        <v>66</v>
       </c>
       <c r="AI28" t="s">
-        <v>252</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>253</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>22</v>
+        <v>496</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>497</v>
       </c>
       <c r="AQ28" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AR28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="AT28" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="AU28">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AV28">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW28" t="s">
         <v>27</v>
@@ -6483,91 +6531,97 @@
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s">
-        <v>255</v>
+        <v>498</v>
       </c>
       <c r="C29" t="s">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>256</v>
+        <v>499</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>257</v>
+        <v>500</v>
       </c>
       <c r="H29" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="I29" t="s">
         <v>7</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="K29" t="s">
         <v>47</v>
       </c>
       <c r="L29" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="P29" t="s">
-        <v>259</v>
+        <v>501</v>
       </c>
       <c r="R29" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="S29" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="W29" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="AA29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC29" t="s">
         <v>18</v>
       </c>
       <c r="AF29" t="s">
-        <v>19</v>
+        <v>502</v>
       </c>
       <c r="AG29" t="s">
         <v>67</v>
       </c>
       <c r="AI29" t="s">
-        <v>260</v>
+        <v>503</v>
       </c>
       <c r="AL29" t="s">
-        <v>261</v>
+        <v>504</v>
       </c>
       <c r="AM29" t="s">
         <v>22</v>
       </c>
+      <c r="AP29" t="s">
+        <v>505</v>
+      </c>
       <c r="AQ29" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="AR29" t="s">
-        <v>103</v>
+        <v>25</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>506</v>
       </c>
       <c r="AT29" t="s">
-        <v>43</v>
+        <v>507</v>
       </c>
       <c r="AU29">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="AV29">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="AW29" t="s">
         <v>27</v>
@@ -6575,55 +6629,55 @@
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s">
-        <v>262</v>
+        <v>508</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>263</v>
+        <v>509</v>
       </c>
       <c r="E30" t="s">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>264</v>
+        <v>510</v>
       </c>
       <c r="H30" t="s">
         <v>88</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="K30" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="L30" t="s">
-        <v>265</v>
+        <v>511</v>
       </c>
       <c r="M30" t="s">
-        <v>36</v>
+        <v>512</v>
       </c>
       <c r="P30" t="s">
-        <v>266</v>
+        <v>513</v>
       </c>
       <c r="R30" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s">
         <v>15</v>
       </c>
       <c r="W30" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="AA30" t="s">
         <v>18</v>
@@ -6632,25 +6686,34 @@
         <v>18</v>
       </c>
       <c r="AF30" t="s">
-        <v>19</v>
+        <v>368</v>
       </c>
       <c r="AI30" t="s">
-        <v>267</v>
+        <v>514</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>515</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>516</v>
       </c>
       <c r="AQ30" t="s">
         <v>24</v>
       </c>
       <c r="AR30" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="s">
-        <v>268</v>
+        <v>61</v>
       </c>
       <c r="AU30">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="AV30">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="AW30" t="s">
         <v>27</v>
@@ -6658,16 +6721,16 @@
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="B31" t="s">
-        <v>269</v>
+        <v>517</v>
       </c>
       <c r="C31" t="s">
         <v>219</v>
       </c>
       <c r="D31" t="s">
-        <v>270</v>
+        <v>518</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
@@ -6676,28 +6739,28 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>271</v>
+        <v>519</v>
       </c>
       <c r="H31" t="s">
-        <v>213</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
+        <v>88</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="L31" t="s">
-        <v>265</v>
+        <v>520</v>
       </c>
       <c r="M31" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="P31" t="s">
-        <v>273</v>
+        <v>521</v>
       </c>
       <c r="R31" t="s">
         <v>14</v>
@@ -6706,7 +6769,7 @@
         <v>15</v>
       </c>
       <c r="W31" t="s">
-        <v>129</v>
+        <v>522</v>
       </c>
       <c r="AA31" t="s">
         <v>18</v>
@@ -6715,34 +6778,31 @@
         <v>18</v>
       </c>
       <c r="AF31" t="s">
-        <v>19</v>
+        <v>66</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>67</v>
       </c>
       <c r="AI31" t="s">
-        <v>274</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>22</v>
+        <v>523</v>
       </c>
       <c r="AQ31" t="s">
         <v>24</v>
       </c>
       <c r="AR31" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="AS31" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="AT31" t="s">
-        <v>43</v>
+        <v>507</v>
       </c>
       <c r="AU31">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="AV31">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AW31" t="s">
         <v>27</v>
@@ -6750,34 +6810,34 @@
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>32</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
+        <v>524</v>
       </c>
       <c r="C32" t="s">
         <v>219</v>
       </c>
       <c r="D32" t="s">
-        <v>277</v>
+        <v>525</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>278</v>
+        <v>526</v>
       </c>
       <c r="H32" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K32" t="s">
         <v>9</v>
@@ -6789,13 +6849,13 @@
         <v>36</v>
       </c>
       <c r="P32" t="s">
-        <v>279</v>
+        <v>527</v>
       </c>
       <c r="R32" t="s">
         <v>38</v>
       </c>
       <c r="S32" t="s">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="W32" t="s">
         <v>39</v>
@@ -6807,25 +6867,31 @@
         <v>18</v>
       </c>
       <c r="AF32" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="AI32" t="s">
-        <v>280</v>
+        <v>528</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>529</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>22</v>
       </c>
       <c r="AQ32" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AR32" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AT32" t="s">
         <v>43</v>
       </c>
       <c r="AU32">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AV32">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AW32" t="s">
         <v>27</v>
@@ -6833,55 +6899,55 @@
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="B33" t="s">
-        <v>281</v>
+        <v>530</v>
       </c>
       <c r="C33" t="s">
         <v>219</v>
       </c>
       <c r="D33" t="s">
-        <v>282</v>
+        <v>531</v>
       </c>
       <c r="E33" t="s">
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>283</v>
+        <v>532</v>
       </c>
       <c r="H33" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K33" t="s">
         <v>9</v>
       </c>
       <c r="L33" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="M33" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="P33" t="s">
-        <v>284</v>
+        <v>533</v>
       </c>
       <c r="R33" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="S33" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="W33" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="AA33" t="s">
         <v>18</v>
@@ -6890,16 +6956,13 @@
         <v>18</v>
       </c>
       <c r="AF33" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>285</v>
+        <v>49</v>
       </c>
       <c r="AI33" t="s">
-        <v>286</v>
+        <v>534</v>
       </c>
       <c r="AL33" t="s">
-        <v>287</v>
+        <v>535</v>
       </c>
       <c r="AM33" t="s">
         <v>22</v>
@@ -6908,16 +6971,16 @@
         <v>42</v>
       </c>
       <c r="AR33" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="AT33" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="AU33">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AV33">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AW33" t="s">
         <v>27</v>
@@ -6925,88 +6988,94 @@
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s">
-        <v>288</v>
+        <v>536</v>
       </c>
       <c r="C34" t="s">
         <v>219</v>
       </c>
       <c r="D34" t="s">
-        <v>289</v>
+        <v>537</v>
       </c>
       <c r="E34" t="s">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>290</v>
+        <v>538</v>
       </c>
       <c r="H34" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" t="s">
-        <v>7</v>
+        <v>88</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="L34" t="s">
-        <v>291</v>
+        <v>35</v>
       </c>
       <c r="M34" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="N34" t="s">
+        <v>539</v>
       </c>
       <c r="P34" t="s">
-        <v>292</v>
+        <v>540</v>
       </c>
       <c r="R34" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s">
         <v>15</v>
       </c>
       <c r="W34" t="s">
-        <v>16</v>
+        <v>541</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>2</v>
       </c>
       <c r="AA34" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="AB34">
+        <v>205</v>
       </c>
       <c r="AC34" t="s">
         <v>18</v>
       </c>
       <c r="AF34" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="AI34" t="s">
-        <v>293</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>294</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="AQ34" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AR34" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="AT34" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="AU34">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="AV34">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="AW34" t="s">
         <v>27</v>
